--- a/CZBRD/src/main/webapp/info/Importni_tabulka_Registr_odkyselovani.xlsx
+++ b/CZBRD/src/main/webapp/info/Importni_tabulka_Registr_odkyselovani.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpavlova\Desktop\Aaa20161128\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucie.pavlova\OneDrive - Accenture\PM\NKP\ProgrammingWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="Boolean">LEGENDA!$A$11:$A$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>Signatura</t>
   </si>
@@ -521,7 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -554,7 +554,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -591,7 +590,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvPr id="1026" name="Rectangle 2" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -888,34 +893,33 @@
   <dimension ref="A1:AB435"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="34.21875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" style="17" customWidth="1"/>
     <col min="7" max="7" width="11" style="17" customWidth="1"/>
     <col min="8" max="8" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="25" customWidth="1"/>
-    <col min="11" max="12" width="14.44140625" style="25"/>
-    <col min="13" max="13" width="19.33203125" style="17" customWidth="1"/>
-    <col min="14" max="14" width="18.77734375" style="25" customWidth="1"/>
-    <col min="15" max="16" width="14.44140625" style="25"/>
-    <col min="17" max="17" width="19.33203125" style="25" customWidth="1"/>
-    <col min="18" max="18" width="19.21875" style="25" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="25" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="25"/>
+    <col min="13" max="13" width="19.28515625" style="17" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="25" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="25"/>
+    <col min="17" max="18" width="19.28515625" style="25" customWidth="1"/>
     <col min="19" max="19" width="20" style="25" customWidth="1"/>
-    <col min="20" max="27" width="14.44140625" style="25"/>
-    <col min="28" max="28" width="19.109375" style="25" customWidth="1"/>
-    <col min="29" max="16384" width="14.44140625" style="17"/>
+    <col min="20" max="27" width="14.42578125" style="25"/>
+    <col min="28" max="28" width="19.140625" style="25" customWidth="1"/>
+    <col min="29" max="16384" width="14.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>41</v>
       </c>
@@ -949,7 +953,7 @@
       <c r="AA1" s="20"/>
       <c r="AB1" s="20"/>
     </row>
-    <row r="2" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -979,7 +983,7 @@
       <c r="AA2" s="20"/>
       <c r="AB2" s="20"/>
     </row>
-    <row r="3" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +1069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -1098,7 +1102,7 @@
       <c r="AA4" s="24"/>
       <c r="AB4" s="24"/>
     </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -1131,7 +1135,7 @@
       <c r="AA5" s="24"/>
       <c r="AB5" s="24"/>
     </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -1164,7 +1168,7 @@
       <c r="AA6" s="24"/>
       <c r="AB6" s="24"/>
     </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -1197,7 +1201,7 @@
       <c r="AA7" s="24"/>
       <c r="AB7" s="24"/>
     </row>
-    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -1230,7 +1234,7 @@
       <c r="AA8" s="24"/>
       <c r="AB8" s="24"/>
     </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -1263,7 +1267,7 @@
       <c r="AA9" s="24"/>
       <c r="AB9" s="24"/>
     </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -1296,7 +1300,7 @@
       <c r="AA10" s="24"/>
       <c r="AB10" s="24"/>
     </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1329,7 +1333,7 @@
       <c r="AA11" s="24"/>
       <c r="AB11" s="24"/>
     </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -1362,7 +1366,7 @@
       <c r="AA12" s="24"/>
       <c r="AB12" s="24"/>
     </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -1395,7 +1399,7 @@
       <c r="AA13" s="24"/>
       <c r="AB13" s="24"/>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -1428,7 +1432,7 @@
       <c r="AA14" s="24"/>
       <c r="AB14" s="24"/>
     </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -1461,7 +1465,7 @@
       <c r="AA15" s="24"/>
       <c r="AB15" s="24"/>
     </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1494,7 +1498,7 @@
       <c r="AA16" s="24"/>
       <c r="AB16" s="24"/>
     </row>
-    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -1527,7 +1531,7 @@
       <c r="AA17" s="24"/>
       <c r="AB17" s="24"/>
     </row>
-    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -1560,7 +1564,7 @@
       <c r="AA18" s="24"/>
       <c r="AB18" s="24"/>
     </row>
-    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -1593,7 +1597,7 @@
       <c r="AA19" s="24"/>
       <c r="AB19" s="24"/>
     </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -1626,7 +1630,7 @@
       <c r="AA20" s="24"/>
       <c r="AB20" s="24"/>
     </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -1659,7 +1663,7 @@
       <c r="AA21" s="24"/>
       <c r="AB21" s="24"/>
     </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -1692,7 +1696,7 @@
       <c r="AA22" s="24"/>
       <c r="AB22" s="24"/>
     </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -1725,7 +1729,7 @@
       <c r="AA23" s="24"/>
       <c r="AB23" s="24"/>
     </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -1758,7 +1762,7 @@
       <c r="AA24" s="24"/>
       <c r="AB24" s="24"/>
     </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -1791,7 +1795,7 @@
       <c r="AA25" s="24"/>
       <c r="AB25" s="24"/>
     </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -1824,7 +1828,7 @@
       <c r="AA26" s="24"/>
       <c r="AB26" s="24"/>
     </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -1857,7 +1861,7 @@
       <c r="AA27" s="24"/>
       <c r="AB27" s="24"/>
     </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -1890,7 +1894,7 @@
       <c r="AA28" s="24"/>
       <c r="AB28" s="24"/>
     </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -1923,7 +1927,7 @@
       <c r="AA29" s="24"/>
       <c r="AB29" s="24"/>
     </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -1956,7 +1960,7 @@
       <c r="AA30" s="24"/>
       <c r="AB30" s="24"/>
     </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -1989,7 +1993,7 @@
       <c r="AA31" s="24"/>
       <c r="AB31" s="24"/>
     </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -2022,7 +2026,7 @@
       <c r="AA32" s="24"/>
       <c r="AB32" s="24"/>
     </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -2055,7 +2059,7 @@
       <c r="AA33" s="24"/>
       <c r="AB33" s="24"/>
     </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -2088,7 +2092,7 @@
       <c r="AA34" s="24"/>
       <c r="AB34" s="24"/>
     </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -2121,7 +2125,7 @@
       <c r="AA35" s="24"/>
       <c r="AB35" s="24"/>
     </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -2154,7 +2158,7 @@
       <c r="AA36" s="24"/>
       <c r="AB36" s="24"/>
     </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -2187,7 +2191,7 @@
       <c r="AA37" s="24"/>
       <c r="AB37" s="24"/>
     </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -2220,7 +2224,7 @@
       <c r="AA38" s="24"/>
       <c r="AB38" s="24"/>
     </row>
-    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -2253,7 +2257,7 @@
       <c r="AA39" s="24"/>
       <c r="AB39" s="24"/>
     </row>
-    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -2286,7 +2290,7 @@
       <c r="AA40" s="24"/>
       <c r="AB40" s="24"/>
     </row>
-    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -2319,7 +2323,7 @@
       <c r="AA41" s="24"/>
       <c r="AB41" s="24"/>
     </row>
-    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -2352,7 +2356,7 @@
       <c r="AA42" s="24"/>
       <c r="AB42" s="24"/>
     </row>
-    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -2385,7 +2389,7 @@
       <c r="AA43" s="24"/>
       <c r="AB43" s="24"/>
     </row>
-    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -2418,7 +2422,7 @@
       <c r="AA44" s="24"/>
       <c r="AB44" s="24"/>
     </row>
-    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -2451,7 +2455,7 @@
       <c r="AA45" s="24"/>
       <c r="AB45" s="24"/>
     </row>
-    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -2484,7 +2488,7 @@
       <c r="AA46" s="24"/>
       <c r="AB46" s="24"/>
     </row>
-    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -2517,7 +2521,7 @@
       <c r="AA47" s="24"/>
       <c r="AB47" s="24"/>
     </row>
-    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -2550,7 +2554,7 @@
       <c r="AA48" s="24"/>
       <c r="AB48" s="24"/>
     </row>
-    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -2583,7 +2587,7 @@
       <c r="AA49" s="24"/>
       <c r="AB49" s="24"/>
     </row>
-    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -2616,7 +2620,7 @@
       <c r="AA50" s="24"/>
       <c r="AB50" s="24"/>
     </row>
-    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -2649,7 +2653,7 @@
       <c r="AA51" s="24"/>
       <c r="AB51" s="24"/>
     </row>
-    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -2682,7 +2686,7 @@
       <c r="AA52" s="24"/>
       <c r="AB52" s="24"/>
     </row>
-    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -2715,7 +2719,7 @@
       <c r="AA53" s="24"/>
       <c r="AB53" s="24"/>
     </row>
-    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -2748,7 +2752,7 @@
       <c r="AA54" s="24"/>
       <c r="AB54" s="24"/>
     </row>
-    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -2781,7 +2785,7 @@
       <c r="AA55" s="24"/>
       <c r="AB55" s="24"/>
     </row>
-    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -2814,7 +2818,7 @@
       <c r="AA56" s="24"/>
       <c r="AB56" s="24"/>
     </row>
-    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -2847,7 +2851,7 @@
       <c r="AA57" s="24"/>
       <c r="AB57" s="24"/>
     </row>
-    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -2880,7 +2884,7 @@
       <c r="AA58" s="24"/>
       <c r="AB58" s="24"/>
     </row>
-    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -2913,7 +2917,7 @@
       <c r="AA59" s="24"/>
       <c r="AB59" s="24"/>
     </row>
-    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -2946,7 +2950,7 @@
       <c r="AA60" s="24"/>
       <c r="AB60" s="24"/>
     </row>
-    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -2979,7 +2983,7 @@
       <c r="AA61" s="24"/>
       <c r="AB61" s="24"/>
     </row>
-    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -3012,7 +3016,7 @@
       <c r="AA62" s="24"/>
       <c r="AB62" s="24"/>
     </row>
-    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -3045,7 +3049,7 @@
       <c r="AA63" s="24"/>
       <c r="AB63" s="24"/>
     </row>
-    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -3078,7 +3082,7 @@
       <c r="AA64" s="24"/>
       <c r="AB64" s="24"/>
     </row>
-    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -3111,7 +3115,7 @@
       <c r="AA65" s="24"/>
       <c r="AB65" s="24"/>
     </row>
-    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -3144,7 +3148,7 @@
       <c r="AA66" s="24"/>
       <c r="AB66" s="24"/>
     </row>
-    <row r="67" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -3177,7 +3181,7 @@
       <c r="AA67" s="24"/>
       <c r="AB67" s="24"/>
     </row>
-    <row r="68" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -3210,7 +3214,7 @@
       <c r="AA68" s="24"/>
       <c r="AB68" s="24"/>
     </row>
-    <row r="69" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
@@ -3243,7 +3247,7 @@
       <c r="AA69" s="24"/>
       <c r="AB69" s="24"/>
     </row>
-    <row r="70" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -3276,7 +3280,7 @@
       <c r="AA70" s="24"/>
       <c r="AB70" s="24"/>
     </row>
-    <row r="71" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -3309,7 +3313,7 @@
       <c r="AA71" s="24"/>
       <c r="AB71" s="24"/>
     </row>
-    <row r="72" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -3342,7 +3346,7 @@
       <c r="AA72" s="24"/>
       <c r="AB72" s="24"/>
     </row>
-    <row r="73" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -3375,7 +3379,7 @@
       <c r="AA73" s="24"/>
       <c r="AB73" s="24"/>
     </row>
-    <row r="74" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -3408,7 +3412,7 @@
       <c r="AA74" s="24"/>
       <c r="AB74" s="24"/>
     </row>
-    <row r="75" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -3441,7 +3445,7 @@
       <c r="AA75" s="24"/>
       <c r="AB75" s="24"/>
     </row>
-    <row r="76" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -3474,7 +3478,7 @@
       <c r="AA76" s="24"/>
       <c r="AB76" s="24"/>
     </row>
-    <row r="77" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
@@ -3507,7 +3511,7 @@
       <c r="AA77" s="24"/>
       <c r="AB77" s="24"/>
     </row>
-    <row r="78" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
@@ -3540,7 +3544,7 @@
       <c r="AA78" s="24"/>
       <c r="AB78" s="24"/>
     </row>
-    <row r="79" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -3573,7 +3577,7 @@
       <c r="AA79" s="24"/>
       <c r="AB79" s="24"/>
     </row>
-    <row r="80" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
@@ -3606,7 +3610,7 @@
       <c r="AA80" s="24"/>
       <c r="AB80" s="24"/>
     </row>
-    <row r="81" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -3639,7 +3643,7 @@
       <c r="AA81" s="24"/>
       <c r="AB81" s="24"/>
     </row>
-    <row r="82" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -3672,7 +3676,7 @@
       <c r="AA82" s="24"/>
       <c r="AB82" s="24"/>
     </row>
-    <row r="83" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -3705,7 +3709,7 @@
       <c r="AA83" s="24"/>
       <c r="AB83" s="24"/>
     </row>
-    <row r="84" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="21"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -3738,7 +3742,7 @@
       <c r="AA84" s="24"/>
       <c r="AB84" s="24"/>
     </row>
-    <row r="85" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -3771,7 +3775,7 @@
       <c r="AA85" s="24"/>
       <c r="AB85" s="24"/>
     </row>
-    <row r="86" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="21"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -3804,7 +3808,7 @@
       <c r="AA86" s="24"/>
       <c r="AB86" s="24"/>
     </row>
-    <row r="87" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="21"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -3837,7 +3841,7 @@
       <c r="AA87" s="24"/>
       <c r="AB87" s="24"/>
     </row>
-    <row r="88" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="21"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -3870,7 +3874,7 @@
       <c r="AA88" s="24"/>
       <c r="AB88" s="24"/>
     </row>
-    <row r="89" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="21"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -3903,7 +3907,7 @@
       <c r="AA89" s="24"/>
       <c r="AB89" s="24"/>
     </row>
-    <row r="90" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -3936,7 +3940,7 @@
       <c r="AA90" s="24"/>
       <c r="AB90" s="24"/>
     </row>
-    <row r="91" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="21"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -3969,7 +3973,7 @@
       <c r="AA91" s="24"/>
       <c r="AB91" s="24"/>
     </row>
-    <row r="92" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
@@ -4002,7 +4006,7 @@
       <c r="AA92" s="24"/>
       <c r="AB92" s="24"/>
     </row>
-    <row r="93" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="21"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
@@ -4035,7 +4039,7 @@
       <c r="AA93" s="24"/>
       <c r="AB93" s="24"/>
     </row>
-    <row r="94" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -4068,7 +4072,7 @@
       <c r="AA94" s="24"/>
       <c r="AB94" s="24"/>
     </row>
-    <row r="95" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -4101,7 +4105,7 @@
       <c r="AA95" s="24"/>
       <c r="AB95" s="24"/>
     </row>
-    <row r="96" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="21"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
@@ -4134,7 +4138,7 @@
       <c r="AA96" s="24"/>
       <c r="AB96" s="24"/>
     </row>
-    <row r="97" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
@@ -4167,7 +4171,7 @@
       <c r="AA97" s="24"/>
       <c r="AB97" s="24"/>
     </row>
-    <row r="98" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -4200,7 +4204,7 @@
       <c r="AA98" s="24"/>
       <c r="AB98" s="24"/>
     </row>
-    <row r="99" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
@@ -4233,7 +4237,7 @@
       <c r="AA99" s="24"/>
       <c r="AB99" s="24"/>
     </row>
-    <row r="100" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
@@ -4266,7 +4270,7 @@
       <c r="AA100" s="24"/>
       <c r="AB100" s="24"/>
     </row>
-    <row r="101" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="21"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -4299,7 +4303,7 @@
       <c r="AA101" s="24"/>
       <c r="AB101" s="24"/>
     </row>
-    <row r="102" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -4332,7 +4336,7 @@
       <c r="AA102" s="24"/>
       <c r="AB102" s="24"/>
     </row>
-    <row r="103" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="21"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -4365,7 +4369,7 @@
       <c r="AA103" s="24"/>
       <c r="AB103" s="24"/>
     </row>
-    <row r="104" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="21"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -4398,7 +4402,7 @@
       <c r="AA104" s="24"/>
       <c r="AB104" s="24"/>
     </row>
-    <row r="105" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="21"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -4431,7 +4435,7 @@
       <c r="AA105" s="24"/>
       <c r="AB105" s="24"/>
     </row>
-    <row r="106" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="21"/>
       <c r="B106" s="21"/>
       <c r="C106" s="21"/>
@@ -4464,7 +4468,7 @@
       <c r="AA106" s="24"/>
       <c r="AB106" s="24"/>
     </row>
-    <row r="107" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="21"/>
       <c r="B107" s="21"/>
       <c r="C107" s="21"/>
@@ -4497,7 +4501,7 @@
       <c r="AA107" s="24"/>
       <c r="AB107" s="24"/>
     </row>
-    <row r="108" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="21"/>
       <c r="B108" s="21"/>
       <c r="C108" s="21"/>
@@ -4530,7 +4534,7 @@
       <c r="AA108" s="24"/>
       <c r="AB108" s="24"/>
     </row>
-    <row r="109" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="21"/>
       <c r="B109" s="21"/>
       <c r="C109" s="21"/>
@@ -4563,7 +4567,7 @@
       <c r="AA109" s="24"/>
       <c r="AB109" s="24"/>
     </row>
-    <row r="110" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="21"/>
       <c r="B110" s="21"/>
       <c r="C110" s="21"/>
@@ -4596,7 +4600,7 @@
       <c r="AA110" s="24"/>
       <c r="AB110" s="24"/>
     </row>
-    <row r="111" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="21"/>
       <c r="B111" s="21"/>
       <c r="C111" s="21"/>
@@ -4629,7 +4633,7 @@
       <c r="AA111" s="24"/>
       <c r="AB111" s="24"/>
     </row>
-    <row r="112" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="21"/>
       <c r="B112" s="21"/>
       <c r="C112" s="21"/>
@@ -4662,7 +4666,7 @@
       <c r="AA112" s="24"/>
       <c r="AB112" s="24"/>
     </row>
-    <row r="113" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="21"/>
       <c r="B113" s="21"/>
       <c r="C113" s="21"/>
@@ -4695,7 +4699,7 @@
       <c r="AA113" s="24"/>
       <c r="AB113" s="24"/>
     </row>
-    <row r="114" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="21"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -4728,7 +4732,7 @@
       <c r="AA114" s="24"/>
       <c r="AB114" s="24"/>
     </row>
-    <row r="115" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="21"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -4761,7 +4765,7 @@
       <c r="AA115" s="24"/>
       <c r="AB115" s="24"/>
     </row>
-    <row r="116" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="21"/>
       <c r="B116" s="21"/>
       <c r="C116" s="21"/>
@@ -4794,7 +4798,7 @@
       <c r="AA116" s="24"/>
       <c r="AB116" s="24"/>
     </row>
-    <row r="117" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="21"/>
       <c r="B117" s="21"/>
       <c r="C117" s="21"/>
@@ -4827,7 +4831,7 @@
       <c r="AA117" s="24"/>
       <c r="AB117" s="24"/>
     </row>
-    <row r="118" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="21"/>
       <c r="B118" s="21"/>
       <c r="C118" s="21"/>
@@ -4860,7 +4864,7 @@
       <c r="AA118" s="24"/>
       <c r="AB118" s="24"/>
     </row>
-    <row r="119" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="21"/>
       <c r="B119" s="21"/>
       <c r="C119" s="21"/>
@@ -4893,7 +4897,7 @@
       <c r="AA119" s="24"/>
       <c r="AB119" s="24"/>
     </row>
-    <row r="120" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="21"/>
       <c r="B120" s="21"/>
       <c r="C120" s="21"/>
@@ -4926,7 +4930,7 @@
       <c r="AA120" s="24"/>
       <c r="AB120" s="24"/>
     </row>
-    <row r="121" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="21"/>
       <c r="B121" s="21"/>
       <c r="C121" s="21"/>
@@ -4959,7 +4963,7 @@
       <c r="AA121" s="24"/>
       <c r="AB121" s="24"/>
     </row>
-    <row r="122" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="21"/>
       <c r="B122" s="21"/>
       <c r="C122" s="21"/>
@@ -4992,7 +4996,7 @@
       <c r="AA122" s="24"/>
       <c r="AB122" s="24"/>
     </row>
-    <row r="123" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="21"/>
       <c r="B123" s="21"/>
       <c r="C123" s="21"/>
@@ -5025,7 +5029,7 @@
       <c r="AA123" s="24"/>
       <c r="AB123" s="24"/>
     </row>
-    <row r="124" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="21"/>
       <c r="B124" s="21"/>
       <c r="C124" s="21"/>
@@ -5058,7 +5062,7 @@
       <c r="AA124" s="24"/>
       <c r="AB124" s="24"/>
     </row>
-    <row r="125" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="21"/>
       <c r="B125" s="21"/>
       <c r="C125" s="21"/>
@@ -5091,7 +5095,7 @@
       <c r="AA125" s="24"/>
       <c r="AB125" s="24"/>
     </row>
-    <row r="126" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="21"/>
       <c r="B126" s="21"/>
       <c r="C126" s="21"/>
@@ -5124,7 +5128,7 @@
       <c r="AA126" s="24"/>
       <c r="AB126" s="24"/>
     </row>
-    <row r="127" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="21"/>
       <c r="B127" s="21"/>
       <c r="C127" s="21"/>
@@ -5157,7 +5161,7 @@
       <c r="AA127" s="24"/>
       <c r="AB127" s="24"/>
     </row>
-    <row r="128" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H128" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5183,7 +5187,7 @@
       <c r="AA128" s="24"/>
       <c r="AB128" s="24"/>
     </row>
-    <row r="129" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H129" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5209,7 +5213,7 @@
       <c r="AA129" s="24"/>
       <c r="AB129" s="24"/>
     </row>
-    <row r="130" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H130" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5235,7 +5239,7 @@
       <c r="AA130" s="24"/>
       <c r="AB130" s="24"/>
     </row>
-    <row r="131" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H131" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5261,7 +5265,7 @@
       <c r="AA131" s="24"/>
       <c r="AB131" s="24"/>
     </row>
-    <row r="132" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H132" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5287,7 +5291,7 @@
       <c r="AA132" s="24"/>
       <c r="AB132" s="24"/>
     </row>
-    <row r="133" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H133" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5313,7 +5317,7 @@
       <c r="AA133" s="24"/>
       <c r="AB133" s="24"/>
     </row>
-    <row r="134" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H134" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5339,7 +5343,7 @@
       <c r="AA134" s="24"/>
       <c r="AB134" s="24"/>
     </row>
-    <row r="135" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H135" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5365,7 +5369,7 @@
       <c r="AA135" s="24"/>
       <c r="AB135" s="24"/>
     </row>
-    <row r="136" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H136" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5391,7 +5395,7 @@
       <c r="AA136" s="24"/>
       <c r="AB136" s="24"/>
     </row>
-    <row r="137" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H137" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5417,7 +5421,7 @@
       <c r="AA137" s="24"/>
       <c r="AB137" s="24"/>
     </row>
-    <row r="138" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H138" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5443,7 +5447,7 @@
       <c r="AA138" s="24"/>
       <c r="AB138" s="24"/>
     </row>
-    <row r="139" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H139" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5469,7 +5473,7 @@
       <c r="AA139" s="24"/>
       <c r="AB139" s="24"/>
     </row>
-    <row r="140" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H140" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5495,7 +5499,7 @@
       <c r="AA140" s="24"/>
       <c r="AB140" s="24"/>
     </row>
-    <row r="141" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H141" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5521,7 +5525,7 @@
       <c r="AA141" s="24"/>
       <c r="AB141" s="24"/>
     </row>
-    <row r="142" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H142" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5547,7 +5551,7 @@
       <c r="AA142" s="24"/>
       <c r="AB142" s="24"/>
     </row>
-    <row r="143" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H143" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5573,7 +5577,7 @@
       <c r="AA143" s="24"/>
       <c r="AB143" s="24"/>
     </row>
-    <row r="144" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H144" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5599,7 +5603,7 @@
       <c r="AA144" s="24"/>
       <c r="AB144" s="24"/>
     </row>
-    <row r="145" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H145" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5625,7 +5629,7 @@
       <c r="AA145" s="24"/>
       <c r="AB145" s="24"/>
     </row>
-    <row r="146" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H146" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5651,7 +5655,7 @@
       <c r="AA146" s="24"/>
       <c r="AB146" s="24"/>
     </row>
-    <row r="147" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H147" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5677,7 +5681,7 @@
       <c r="AA147" s="24"/>
       <c r="AB147" s="24"/>
     </row>
-    <row r="148" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H148" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5703,7 +5707,7 @@
       <c r="AA148" s="24"/>
       <c r="AB148" s="24"/>
     </row>
-    <row r="149" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H149" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5729,7 +5733,7 @@
       <c r="AA149" s="24"/>
       <c r="AB149" s="24"/>
     </row>
-    <row r="150" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H150" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5755,7 +5759,7 @@
       <c r="AA150" s="24"/>
       <c r="AB150" s="24"/>
     </row>
-    <row r="151" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H151" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5781,7 +5785,7 @@
       <c r="AA151" s="24"/>
       <c r="AB151" s="24"/>
     </row>
-    <row r="152" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H152" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5807,7 +5811,7 @@
       <c r="AA152" s="24"/>
       <c r="AB152" s="24"/>
     </row>
-    <row r="153" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H153" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5833,7 +5837,7 @@
       <c r="AA153" s="24"/>
       <c r="AB153" s="24"/>
     </row>
-    <row r="154" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H154" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5859,7 +5863,7 @@
       <c r="AA154" s="24"/>
       <c r="AB154" s="24"/>
     </row>
-    <row r="155" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H155" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5885,7 +5889,7 @@
       <c r="AA155" s="24"/>
       <c r="AB155" s="24"/>
     </row>
-    <row r="156" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H156" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5911,7 +5915,7 @@
       <c r="AA156" s="24"/>
       <c r="AB156" s="24"/>
     </row>
-    <row r="157" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H157" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5937,7 +5941,7 @@
       <c r="AA157" s="24"/>
       <c r="AB157" s="24"/>
     </row>
-    <row r="158" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H158" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5963,7 +5967,7 @@
       <c r="AA158" s="24"/>
       <c r="AB158" s="24"/>
     </row>
-    <row r="159" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H159" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -5989,7 +5993,7 @@
       <c r="AA159" s="24"/>
       <c r="AB159" s="24"/>
     </row>
-    <row r="160" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H160" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6015,7 +6019,7 @@
       <c r="AA160" s="24"/>
       <c r="AB160" s="24"/>
     </row>
-    <row r="161" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H161" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6041,7 +6045,7 @@
       <c r="AA161" s="24"/>
       <c r="AB161" s="24"/>
     </row>
-    <row r="162" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H162" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6067,7 +6071,7 @@
       <c r="AA162" s="24"/>
       <c r="AB162" s="24"/>
     </row>
-    <row r="163" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H163" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6093,7 +6097,7 @@
       <c r="AA163" s="24"/>
       <c r="AB163" s="24"/>
     </row>
-    <row r="164" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H164" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6119,7 +6123,7 @@
       <c r="AA164" s="24"/>
       <c r="AB164" s="24"/>
     </row>
-    <row r="165" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H165" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6145,7 +6149,7 @@
       <c r="AA165" s="24"/>
       <c r="AB165" s="24"/>
     </row>
-    <row r="166" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H166" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6171,7 +6175,7 @@
       <c r="AA166" s="24"/>
       <c r="AB166" s="24"/>
     </row>
-    <row r="167" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H167" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6197,7 +6201,7 @@
       <c r="AA167" s="24"/>
       <c r="AB167" s="24"/>
     </row>
-    <row r="168" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H168" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6223,7 +6227,7 @@
       <c r="AA168" s="24"/>
       <c r="AB168" s="24"/>
     </row>
-    <row r="169" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H169" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6249,7 +6253,7 @@
       <c r="AA169" s="24"/>
       <c r="AB169" s="24"/>
     </row>
-    <row r="170" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H170" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6275,7 +6279,7 @@
       <c r="AA170" s="24"/>
       <c r="AB170" s="24"/>
     </row>
-    <row r="171" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H171" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6301,7 +6305,7 @@
       <c r="AA171" s="24"/>
       <c r="AB171" s="24"/>
     </row>
-    <row r="172" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H172" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6327,7 +6331,7 @@
       <c r="AA172" s="24"/>
       <c r="AB172" s="24"/>
     </row>
-    <row r="173" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H173" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6353,7 +6357,7 @@
       <c r="AA173" s="24"/>
       <c r="AB173" s="24"/>
     </row>
-    <row r="174" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H174" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6379,7 +6383,7 @@
       <c r="AA174" s="24"/>
       <c r="AB174" s="24"/>
     </row>
-    <row r="175" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H175" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6405,7 +6409,7 @@
       <c r="AA175" s="24"/>
       <c r="AB175" s="24"/>
     </row>
-    <row r="176" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H176" s="18" t="str">
         <f t="shared" si="2"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6431,7 +6435,7 @@
       <c r="AA176" s="24"/>
       <c r="AB176" s="24"/>
     </row>
-    <row r="177" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H177" s="18" t="str">
         <f t="shared" ref="H177:H240" si="3">$B$1</f>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6457,7 +6461,7 @@
       <c r="AA177" s="24"/>
       <c r="AB177" s="24"/>
     </row>
-    <row r="178" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H178" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6483,7 +6487,7 @@
       <c r="AA178" s="24"/>
       <c r="AB178" s="24"/>
     </row>
-    <row r="179" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H179" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6509,7 +6513,7 @@
       <c r="AA179" s="24"/>
       <c r="AB179" s="24"/>
     </row>
-    <row r="180" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H180" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6535,7 +6539,7 @@
       <c r="AA180" s="24"/>
       <c r="AB180" s="24"/>
     </row>
-    <row r="181" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H181" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6561,7 +6565,7 @@
       <c r="AA181" s="24"/>
       <c r="AB181" s="24"/>
     </row>
-    <row r="182" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H182" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6587,7 +6591,7 @@
       <c r="AA182" s="24"/>
       <c r="AB182" s="24"/>
     </row>
-    <row r="183" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H183" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6613,7 +6617,7 @@
       <c r="AA183" s="24"/>
       <c r="AB183" s="24"/>
     </row>
-    <row r="184" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H184" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6639,7 +6643,7 @@
       <c r="AA184" s="24"/>
       <c r="AB184" s="24"/>
     </row>
-    <row r="185" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H185" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6665,7 +6669,7 @@
       <c r="AA185" s="24"/>
       <c r="AB185" s="24"/>
     </row>
-    <row r="186" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H186" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6691,7 +6695,7 @@
       <c r="AA186" s="24"/>
       <c r="AB186" s="24"/>
     </row>
-    <row r="187" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H187" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6717,7 +6721,7 @@
       <c r="AA187" s="24"/>
       <c r="AB187" s="24"/>
     </row>
-    <row r="188" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H188" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6743,7 +6747,7 @@
       <c r="AA188" s="24"/>
       <c r="AB188" s="24"/>
     </row>
-    <row r="189" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H189" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6769,7 +6773,7 @@
       <c r="AA189" s="24"/>
       <c r="AB189" s="24"/>
     </row>
-    <row r="190" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H190" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6795,7 +6799,7 @@
       <c r="AA190" s="24"/>
       <c r="AB190" s="24"/>
     </row>
-    <row r="191" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H191" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6821,7 +6825,7 @@
       <c r="AA191" s="24"/>
       <c r="AB191" s="24"/>
     </row>
-    <row r="192" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H192" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6847,7 +6851,7 @@
       <c r="AA192" s="24"/>
       <c r="AB192" s="24"/>
     </row>
-    <row r="193" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H193" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6873,7 +6877,7 @@
       <c r="AA193" s="24"/>
       <c r="AB193" s="24"/>
     </row>
-    <row r="194" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H194" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6899,7 +6903,7 @@
       <c r="AA194" s="24"/>
       <c r="AB194" s="24"/>
     </row>
-    <row r="195" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H195" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6925,7 +6929,7 @@
       <c r="AA195" s="24"/>
       <c r="AB195" s="24"/>
     </row>
-    <row r="196" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H196" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6951,7 +6955,7 @@
       <c r="AA196" s="24"/>
       <c r="AB196" s="24"/>
     </row>
-    <row r="197" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H197" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -6977,7 +6981,7 @@
       <c r="AA197" s="24"/>
       <c r="AB197" s="24"/>
     </row>
-    <row r="198" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H198" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7003,7 +7007,7 @@
       <c r="AA198" s="24"/>
       <c r="AB198" s="24"/>
     </row>
-    <row r="199" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H199" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7029,7 +7033,7 @@
       <c r="AA199" s="24"/>
       <c r="AB199" s="24"/>
     </row>
-    <row r="200" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H200" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7055,7 +7059,7 @@
       <c r="AA200" s="24"/>
       <c r="AB200" s="24"/>
     </row>
-    <row r="201" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H201" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7081,7 +7085,7 @@
       <c r="AA201" s="24"/>
       <c r="AB201" s="24"/>
     </row>
-    <row r="202" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H202" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7107,7 +7111,7 @@
       <c r="AA202" s="24"/>
       <c r="AB202" s="24"/>
     </row>
-    <row r="203" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H203" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7133,7 +7137,7 @@
       <c r="AA203" s="24"/>
       <c r="AB203" s="24"/>
     </row>
-    <row r="204" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H204" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7159,7 +7163,7 @@
       <c r="AA204" s="24"/>
       <c r="AB204" s="24"/>
     </row>
-    <row r="205" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H205" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7185,7 +7189,7 @@
       <c r="AA205" s="24"/>
       <c r="AB205" s="24"/>
     </row>
-    <row r="206" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H206" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7211,7 +7215,7 @@
       <c r="AA206" s="24"/>
       <c r="AB206" s="24"/>
     </row>
-    <row r="207" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H207" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7237,7 +7241,7 @@
       <c r="AA207" s="24"/>
       <c r="AB207" s="24"/>
     </row>
-    <row r="208" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H208" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7263,7 +7267,7 @@
       <c r="AA208" s="24"/>
       <c r="AB208" s="24"/>
     </row>
-    <row r="209" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H209" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7289,7 +7293,7 @@
       <c r="AA209" s="24"/>
       <c r="AB209" s="24"/>
     </row>
-    <row r="210" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H210" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7315,7 +7319,7 @@
       <c r="AA210" s="24"/>
       <c r="AB210" s="24"/>
     </row>
-    <row r="211" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H211" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7341,7 +7345,7 @@
       <c r="AA211" s="24"/>
       <c r="AB211" s="24"/>
     </row>
-    <row r="212" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H212" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7367,7 +7371,7 @@
       <c r="AA212" s="24"/>
       <c r="AB212" s="24"/>
     </row>
-    <row r="213" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H213" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7393,7 +7397,7 @@
       <c r="AA213" s="24"/>
       <c r="AB213" s="24"/>
     </row>
-    <row r="214" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H214" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7419,7 +7423,7 @@
       <c r="AA214" s="24"/>
       <c r="AB214" s="24"/>
     </row>
-    <row r="215" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H215" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7445,7 +7449,7 @@
       <c r="AA215" s="24"/>
       <c r="AB215" s="24"/>
     </row>
-    <row r="216" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H216" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7471,7 +7475,7 @@
       <c r="AA216" s="24"/>
       <c r="AB216" s="24"/>
     </row>
-    <row r="217" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H217" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7497,7 +7501,7 @@
       <c r="AA217" s="24"/>
       <c r="AB217" s="24"/>
     </row>
-    <row r="218" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H218" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7523,7 +7527,7 @@
       <c r="AA218" s="24"/>
       <c r="AB218" s="24"/>
     </row>
-    <row r="219" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H219" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7549,7 +7553,7 @@
       <c r="AA219" s="24"/>
       <c r="AB219" s="24"/>
     </row>
-    <row r="220" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H220" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7575,7 +7579,7 @@
       <c r="AA220" s="24"/>
       <c r="AB220" s="24"/>
     </row>
-    <row r="221" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H221" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7601,7 +7605,7 @@
       <c r="AA221" s="24"/>
       <c r="AB221" s="24"/>
     </row>
-    <row r="222" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H222" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7627,7 +7631,7 @@
       <c r="AA222" s="24"/>
       <c r="AB222" s="24"/>
     </row>
-    <row r="223" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H223" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7653,7 +7657,7 @@
       <c r="AA223" s="24"/>
       <c r="AB223" s="24"/>
     </row>
-    <row r="224" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H224" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7679,7 +7683,7 @@
       <c r="AA224" s="24"/>
       <c r="AB224" s="24"/>
     </row>
-    <row r="225" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H225" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7705,7 +7709,7 @@
       <c r="AA225" s="24"/>
       <c r="AB225" s="24"/>
     </row>
-    <row r="226" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H226" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7731,7 +7735,7 @@
       <c r="AA226" s="24"/>
       <c r="AB226" s="24"/>
     </row>
-    <row r="227" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H227" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7757,7 +7761,7 @@
       <c r="AA227" s="24"/>
       <c r="AB227" s="24"/>
     </row>
-    <row r="228" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H228" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7783,7 +7787,7 @@
       <c r="AA228" s="24"/>
       <c r="AB228" s="24"/>
     </row>
-    <row r="229" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H229" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7809,7 +7813,7 @@
       <c r="AA229" s="24"/>
       <c r="AB229" s="24"/>
     </row>
-    <row r="230" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H230" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7835,7 +7839,7 @@
       <c r="AA230" s="24"/>
       <c r="AB230" s="24"/>
     </row>
-    <row r="231" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H231" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7861,7 +7865,7 @@
       <c r="AA231" s="24"/>
       <c r="AB231" s="24"/>
     </row>
-    <row r="232" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H232" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7887,7 +7891,7 @@
       <c r="AA232" s="24"/>
       <c r="AB232" s="24"/>
     </row>
-    <row r="233" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H233" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7913,7 +7917,7 @@
       <c r="AA233" s="24"/>
       <c r="AB233" s="24"/>
     </row>
-    <row r="234" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H234" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7939,7 +7943,7 @@
       <c r="AA234" s="24"/>
       <c r="AB234" s="24"/>
     </row>
-    <row r="235" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H235" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7965,7 +7969,7 @@
       <c r="AA235" s="24"/>
       <c r="AB235" s="24"/>
     </row>
-    <row r="236" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H236" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -7991,7 +7995,7 @@
       <c r="AA236" s="24"/>
       <c r="AB236" s="24"/>
     </row>
-    <row r="237" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H237" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8017,7 +8021,7 @@
       <c r="AA237" s="24"/>
       <c r="AB237" s="24"/>
     </row>
-    <row r="238" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H238" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8043,7 +8047,7 @@
       <c r="AA238" s="24"/>
       <c r="AB238" s="24"/>
     </row>
-    <row r="239" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H239" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8069,7 +8073,7 @@
       <c r="AA239" s="24"/>
       <c r="AB239" s="24"/>
     </row>
-    <row r="240" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H240" s="18" t="str">
         <f t="shared" si="3"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8095,7 +8099,7 @@
       <c r="AA240" s="24"/>
       <c r="AB240" s="24"/>
     </row>
-    <row r="241" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H241" s="18" t="str">
         <f t="shared" ref="H241:H304" si="4">$B$1</f>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8121,7 +8125,7 @@
       <c r="AA241" s="24"/>
       <c r="AB241" s="24"/>
     </row>
-    <row r="242" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H242" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8147,7 +8151,7 @@
       <c r="AA242" s="24"/>
       <c r="AB242" s="24"/>
     </row>
-    <row r="243" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H243" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8173,7 +8177,7 @@
       <c r="AA243" s="24"/>
       <c r="AB243" s="24"/>
     </row>
-    <row r="244" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H244" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8199,7 +8203,7 @@
       <c r="AA244" s="24"/>
       <c r="AB244" s="24"/>
     </row>
-    <row r="245" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H245" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8225,7 +8229,7 @@
       <c r="AA245" s="24"/>
       <c r="AB245" s="24"/>
     </row>
-    <row r="246" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H246" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8251,7 +8255,7 @@
       <c r="AA246" s="24"/>
       <c r="AB246" s="24"/>
     </row>
-    <row r="247" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H247" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8277,7 +8281,7 @@
       <c r="AA247" s="24"/>
       <c r="AB247" s="24"/>
     </row>
-    <row r="248" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H248" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8303,7 +8307,7 @@
       <c r="AA248" s="24"/>
       <c r="AB248" s="24"/>
     </row>
-    <row r="249" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H249" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8329,7 +8333,7 @@
       <c r="AA249" s="24"/>
       <c r="AB249" s="24"/>
     </row>
-    <row r="250" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H250" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8355,7 +8359,7 @@
       <c r="AA250" s="24"/>
       <c r="AB250" s="24"/>
     </row>
-    <row r="251" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H251" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8381,7 +8385,7 @@
       <c r="AA251" s="24"/>
       <c r="AB251" s="24"/>
     </row>
-    <row r="252" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H252" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8407,7 +8411,7 @@
       <c r="AA252" s="24"/>
       <c r="AB252" s="24"/>
     </row>
-    <row r="253" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H253" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8433,7 +8437,7 @@
       <c r="AA253" s="24"/>
       <c r="AB253" s="24"/>
     </row>
-    <row r="254" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H254" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8459,7 +8463,7 @@
       <c r="AA254" s="24"/>
       <c r="AB254" s="24"/>
     </row>
-    <row r="255" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H255" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8485,7 +8489,7 @@
       <c r="AA255" s="24"/>
       <c r="AB255" s="24"/>
     </row>
-    <row r="256" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H256" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8511,7 +8515,7 @@
       <c r="AA256" s="24"/>
       <c r="AB256" s="24"/>
     </row>
-    <row r="257" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H257" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8537,7 +8541,7 @@
       <c r="AA257" s="24"/>
       <c r="AB257" s="24"/>
     </row>
-    <row r="258" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H258" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8563,7 +8567,7 @@
       <c r="AA258" s="24"/>
       <c r="AB258" s="24"/>
     </row>
-    <row r="259" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H259" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8589,7 +8593,7 @@
       <c r="AA259" s="24"/>
       <c r="AB259" s="24"/>
     </row>
-    <row r="260" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H260" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8615,7 +8619,7 @@
       <c r="AA260" s="24"/>
       <c r="AB260" s="24"/>
     </row>
-    <row r="261" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H261" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8641,7 +8645,7 @@
       <c r="AA261" s="24"/>
       <c r="AB261" s="24"/>
     </row>
-    <row r="262" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H262" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8667,7 +8671,7 @@
       <c r="AA262" s="24"/>
       <c r="AB262" s="24"/>
     </row>
-    <row r="263" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H263" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8693,7 +8697,7 @@
       <c r="AA263" s="24"/>
       <c r="AB263" s="24"/>
     </row>
-    <row r="264" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H264" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8719,7 +8723,7 @@
       <c r="AA264" s="24"/>
       <c r="AB264" s="24"/>
     </row>
-    <row r="265" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H265" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8745,7 +8749,7 @@
       <c r="AA265" s="24"/>
       <c r="AB265" s="24"/>
     </row>
-    <row r="266" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H266" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8771,7 +8775,7 @@
       <c r="AA266" s="24"/>
       <c r="AB266" s="24"/>
     </row>
-    <row r="267" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H267" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8797,7 +8801,7 @@
       <c r="AA267" s="24"/>
       <c r="AB267" s="24"/>
     </row>
-    <row r="268" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H268" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8823,7 +8827,7 @@
       <c r="AA268" s="24"/>
       <c r="AB268" s="24"/>
     </row>
-    <row r="269" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H269" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8849,7 +8853,7 @@
       <c r="AA269" s="24"/>
       <c r="AB269" s="24"/>
     </row>
-    <row r="270" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H270" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8875,7 +8879,7 @@
       <c r="AA270" s="24"/>
       <c r="AB270" s="24"/>
     </row>
-    <row r="271" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H271" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8901,7 +8905,7 @@
       <c r="AA271" s="24"/>
       <c r="AB271" s="24"/>
     </row>
-    <row r="272" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H272" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8927,7 +8931,7 @@
       <c r="AA272" s="24"/>
       <c r="AB272" s="24"/>
     </row>
-    <row r="273" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H273" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8953,7 +8957,7 @@
       <c r="AA273" s="24"/>
       <c r="AB273" s="24"/>
     </row>
-    <row r="274" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H274" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -8979,7 +8983,7 @@
       <c r="AA274" s="24"/>
       <c r="AB274" s="24"/>
     </row>
-    <row r="275" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H275" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9005,7 +9009,7 @@
       <c r="AA275" s="24"/>
       <c r="AB275" s="24"/>
     </row>
-    <row r="276" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H276" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9031,7 +9035,7 @@
       <c r="AA276" s="24"/>
       <c r="AB276" s="24"/>
     </row>
-    <row r="277" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H277" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9057,7 +9061,7 @@
       <c r="AA277" s="24"/>
       <c r="AB277" s="24"/>
     </row>
-    <row r="278" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H278" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9083,7 +9087,7 @@
       <c r="AA278" s="24"/>
       <c r="AB278" s="24"/>
     </row>
-    <row r="279" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H279" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9109,7 +9113,7 @@
       <c r="AA279" s="24"/>
       <c r="AB279" s="24"/>
     </row>
-    <row r="280" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H280" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9135,7 +9139,7 @@
       <c r="AA280" s="24"/>
       <c r="AB280" s="24"/>
     </row>
-    <row r="281" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H281" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9161,7 +9165,7 @@
       <c r="AA281" s="24"/>
       <c r="AB281" s="24"/>
     </row>
-    <row r="282" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H282" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9187,7 +9191,7 @@
       <c r="AA282" s="24"/>
       <c r="AB282" s="24"/>
     </row>
-    <row r="283" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H283" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9213,7 +9217,7 @@
       <c r="AA283" s="24"/>
       <c r="AB283" s="24"/>
     </row>
-    <row r="284" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H284" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9239,7 +9243,7 @@
       <c r="AA284" s="24"/>
       <c r="AB284" s="24"/>
     </row>
-    <row r="285" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H285" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9265,7 +9269,7 @@
       <c r="AA285" s="24"/>
       <c r="AB285" s="24"/>
     </row>
-    <row r="286" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H286" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9291,7 +9295,7 @@
       <c r="AA286" s="24"/>
       <c r="AB286" s="24"/>
     </row>
-    <row r="287" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H287" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9317,7 +9321,7 @@
       <c r="AA287" s="24"/>
       <c r="AB287" s="24"/>
     </row>
-    <row r="288" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H288" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9343,7 +9347,7 @@
       <c r="AA288" s="24"/>
       <c r="AB288" s="24"/>
     </row>
-    <row r="289" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H289" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9369,7 +9373,7 @@
       <c r="AA289" s="24"/>
       <c r="AB289" s="24"/>
     </row>
-    <row r="290" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H290" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9395,7 +9399,7 @@
       <c r="AA290" s="24"/>
       <c r="AB290" s="24"/>
     </row>
-    <row r="291" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H291" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9421,7 +9425,7 @@
       <c r="AA291" s="24"/>
       <c r="AB291" s="24"/>
     </row>
-    <row r="292" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H292" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9447,7 +9451,7 @@
       <c r="AA292" s="24"/>
       <c r="AB292" s="24"/>
     </row>
-    <row r="293" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H293" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9473,7 +9477,7 @@
       <c r="AA293" s="24"/>
       <c r="AB293" s="24"/>
     </row>
-    <row r="294" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H294" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9499,7 +9503,7 @@
       <c r="AA294" s="24"/>
       <c r="AB294" s="24"/>
     </row>
-    <row r="295" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H295" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9525,7 +9529,7 @@
       <c r="AA295" s="24"/>
       <c r="AB295" s="24"/>
     </row>
-    <row r="296" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H296" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9551,7 +9555,7 @@
       <c r="AA296" s="24"/>
       <c r="AB296" s="24"/>
     </row>
-    <row r="297" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H297" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9577,7 +9581,7 @@
       <c r="AA297" s="24"/>
       <c r="AB297" s="24"/>
     </row>
-    <row r="298" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H298" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9603,7 +9607,7 @@
       <c r="AA298" s="24"/>
       <c r="AB298" s="24"/>
     </row>
-    <row r="299" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H299" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9629,7 +9633,7 @@
       <c r="AA299" s="24"/>
       <c r="AB299" s="24"/>
     </row>
-    <row r="300" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H300" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9655,7 +9659,7 @@
       <c r="AA300" s="24"/>
       <c r="AB300" s="24"/>
     </row>
-    <row r="301" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H301" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9681,7 +9685,7 @@
       <c r="AA301" s="24"/>
       <c r="AB301" s="24"/>
     </row>
-    <row r="302" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H302" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9707,7 +9711,7 @@
       <c r="AA302" s="24"/>
       <c r="AB302" s="24"/>
     </row>
-    <row r="303" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H303" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9733,7 +9737,7 @@
       <c r="AA303" s="24"/>
       <c r="AB303" s="24"/>
     </row>
-    <row r="304" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H304" s="18" t="str">
         <f t="shared" si="4"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9759,7 +9763,7 @@
       <c r="AA304" s="24"/>
       <c r="AB304" s="24"/>
     </row>
-    <row r="305" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H305" s="18" t="str">
         <f t="shared" ref="H305:H368" si="5">$B$1</f>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9785,7 +9789,7 @@
       <c r="AA305" s="24"/>
       <c r="AB305" s="24"/>
     </row>
-    <row r="306" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H306" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9811,7 +9815,7 @@
       <c r="AA306" s="24"/>
       <c r="AB306" s="24"/>
     </row>
-    <row r="307" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H307" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9837,7 +9841,7 @@
       <c r="AA307" s="24"/>
       <c r="AB307" s="24"/>
     </row>
-    <row r="308" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H308" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9863,7 +9867,7 @@
       <c r="AA308" s="24"/>
       <c r="AB308" s="24"/>
     </row>
-    <row r="309" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H309" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9889,7 +9893,7 @@
       <c r="AA309" s="24"/>
       <c r="AB309" s="24"/>
     </row>
-    <row r="310" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H310" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9915,7 +9919,7 @@
       <c r="AA310" s="24"/>
       <c r="AB310" s="24"/>
     </row>
-    <row r="311" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H311" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9941,7 +9945,7 @@
       <c r="AA311" s="24"/>
       <c r="AB311" s="24"/>
     </row>
-    <row r="312" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H312" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9967,7 +9971,7 @@
       <c r="AA312" s="24"/>
       <c r="AB312" s="24"/>
     </row>
-    <row r="313" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H313" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -9993,7 +9997,7 @@
       <c r="AA313" s="24"/>
       <c r="AB313" s="24"/>
     </row>
-    <row r="314" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H314" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10019,7 +10023,7 @@
       <c r="AA314" s="24"/>
       <c r="AB314" s="24"/>
     </row>
-    <row r="315" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H315" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10045,7 +10049,7 @@
       <c r="AA315" s="24"/>
       <c r="AB315" s="24"/>
     </row>
-    <row r="316" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H316" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10071,7 +10075,7 @@
       <c r="AA316" s="24"/>
       <c r="AB316" s="24"/>
     </row>
-    <row r="317" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H317" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10097,7 +10101,7 @@
       <c r="AA317" s="24"/>
       <c r="AB317" s="24"/>
     </row>
-    <row r="318" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H318" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10123,7 +10127,7 @@
       <c r="AA318" s="24"/>
       <c r="AB318" s="24"/>
     </row>
-    <row r="319" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H319" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10149,7 +10153,7 @@
       <c r="AA319" s="24"/>
       <c r="AB319" s="24"/>
     </row>
-    <row r="320" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H320" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10175,7 +10179,7 @@
       <c r="AA320" s="24"/>
       <c r="AB320" s="24"/>
     </row>
-    <row r="321" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H321" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10201,7 +10205,7 @@
       <c r="AA321" s="24"/>
       <c r="AB321" s="24"/>
     </row>
-    <row r="322" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H322" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10227,7 +10231,7 @@
       <c r="AA322" s="24"/>
       <c r="AB322" s="24"/>
     </row>
-    <row r="323" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H323" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10253,7 +10257,7 @@
       <c r="AA323" s="24"/>
       <c r="AB323" s="24"/>
     </row>
-    <row r="324" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H324" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10279,7 +10283,7 @@
       <c r="AA324" s="24"/>
       <c r="AB324" s="24"/>
     </row>
-    <row r="325" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H325" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10305,7 +10309,7 @@
       <c r="AA325" s="24"/>
       <c r="AB325" s="24"/>
     </row>
-    <row r="326" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H326" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10331,7 +10335,7 @@
       <c r="AA326" s="24"/>
       <c r="AB326" s="24"/>
     </row>
-    <row r="327" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H327" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10357,7 +10361,7 @@
       <c r="AA327" s="24"/>
       <c r="AB327" s="24"/>
     </row>
-    <row r="328" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H328" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10383,7 +10387,7 @@
       <c r="AA328" s="24"/>
       <c r="AB328" s="24"/>
     </row>
-    <row r="329" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H329" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10409,7 +10413,7 @@
       <c r="AA329" s="24"/>
       <c r="AB329" s="24"/>
     </row>
-    <row r="330" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H330" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10435,7 +10439,7 @@
       <c r="AA330" s="24"/>
       <c r="AB330" s="24"/>
     </row>
-    <row r="331" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H331" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10461,7 +10465,7 @@
       <c r="AA331" s="24"/>
       <c r="AB331" s="24"/>
     </row>
-    <row r="332" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H332" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10487,7 +10491,7 @@
       <c r="AA332" s="24"/>
       <c r="AB332" s="24"/>
     </row>
-    <row r="333" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H333" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10513,7 +10517,7 @@
       <c r="AA333" s="24"/>
       <c r="AB333" s="24"/>
     </row>
-    <row r="334" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H334" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10539,7 +10543,7 @@
       <c r="AA334" s="24"/>
       <c r="AB334" s="24"/>
     </row>
-    <row r="335" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H335" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10565,7 +10569,7 @@
       <c r="AA335" s="24"/>
       <c r="AB335" s="24"/>
     </row>
-    <row r="336" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H336" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10591,7 +10595,7 @@
       <c r="AA336" s="24"/>
       <c r="AB336" s="24"/>
     </row>
-    <row r="337" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H337" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10617,7 +10621,7 @@
       <c r="AA337" s="24"/>
       <c r="AB337" s="24"/>
     </row>
-    <row r="338" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H338" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10643,7 +10647,7 @@
       <c r="AA338" s="24"/>
       <c r="AB338" s="24"/>
     </row>
-    <row r="339" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H339" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10669,7 +10673,7 @@
       <c r="AA339" s="24"/>
       <c r="AB339" s="24"/>
     </row>
-    <row r="340" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H340" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10695,7 +10699,7 @@
       <c r="AA340" s="24"/>
       <c r="AB340" s="24"/>
     </row>
-    <row r="341" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H341" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10721,7 +10725,7 @@
       <c r="AA341" s="24"/>
       <c r="AB341" s="24"/>
     </row>
-    <row r="342" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H342" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10747,7 +10751,7 @@
       <c r="AA342" s="24"/>
       <c r="AB342" s="24"/>
     </row>
-    <row r="343" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H343" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10773,7 +10777,7 @@
       <c r="AA343" s="24"/>
       <c r="AB343" s="24"/>
     </row>
-    <row r="344" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H344" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10799,7 +10803,7 @@
       <c r="AA344" s="24"/>
       <c r="AB344" s="24"/>
     </row>
-    <row r="345" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H345" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10825,7 +10829,7 @@
       <c r="AA345" s="24"/>
       <c r="AB345" s="24"/>
     </row>
-    <row r="346" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H346" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10851,7 +10855,7 @@
       <c r="AA346" s="24"/>
       <c r="AB346" s="24"/>
     </row>
-    <row r="347" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H347" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10877,7 +10881,7 @@
       <c r="AA347" s="24"/>
       <c r="AB347" s="24"/>
     </row>
-    <row r="348" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H348" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10903,7 +10907,7 @@
       <c r="AA348" s="24"/>
       <c r="AB348" s="24"/>
     </row>
-    <row r="349" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H349" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10929,7 +10933,7 @@
       <c r="AA349" s="24"/>
       <c r="AB349" s="24"/>
     </row>
-    <row r="350" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H350" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10955,7 +10959,7 @@
       <c r="AA350" s="24"/>
       <c r="AB350" s="24"/>
     </row>
-    <row r="351" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H351" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -10981,7 +10985,7 @@
       <c r="AA351" s="24"/>
       <c r="AB351" s="24"/>
     </row>
-    <row r="352" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H352" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11007,7 +11011,7 @@
       <c r="AA352" s="24"/>
       <c r="AB352" s="24"/>
     </row>
-    <row r="353" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H353" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11033,7 +11037,7 @@
       <c r="AA353" s="24"/>
       <c r="AB353" s="24"/>
     </row>
-    <row r="354" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H354" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11059,7 +11063,7 @@
       <c r="AA354" s="24"/>
       <c r="AB354" s="24"/>
     </row>
-    <row r="355" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H355" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11085,7 +11089,7 @@
       <c r="AA355" s="24"/>
       <c r="AB355" s="24"/>
     </row>
-    <row r="356" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H356" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11111,7 +11115,7 @@
       <c r="AA356" s="24"/>
       <c r="AB356" s="24"/>
     </row>
-    <row r="357" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H357" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11137,7 +11141,7 @@
       <c r="AA357" s="24"/>
       <c r="AB357" s="24"/>
     </row>
-    <row r="358" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H358" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11163,7 +11167,7 @@
       <c r="AA358" s="24"/>
       <c r="AB358" s="24"/>
     </row>
-    <row r="359" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H359" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11189,7 +11193,7 @@
       <c r="AA359" s="24"/>
       <c r="AB359" s="24"/>
     </row>
-    <row r="360" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H360" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11215,7 +11219,7 @@
       <c r="AA360" s="24"/>
       <c r="AB360" s="24"/>
     </row>
-    <row r="361" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H361" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11241,7 +11245,7 @@
       <c r="AA361" s="24"/>
       <c r="AB361" s="24"/>
     </row>
-    <row r="362" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H362" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11267,7 +11271,7 @@
       <c r="AA362" s="24"/>
       <c r="AB362" s="24"/>
     </row>
-    <row r="363" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H363" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11293,7 +11297,7 @@
       <c r="AA363" s="24"/>
       <c r="AB363" s="24"/>
     </row>
-    <row r="364" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H364" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11319,7 +11323,7 @@
       <c r="AA364" s="24"/>
       <c r="AB364" s="24"/>
     </row>
-    <row r="365" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H365" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11345,7 +11349,7 @@
       <c r="AA365" s="24"/>
       <c r="AB365" s="24"/>
     </row>
-    <row r="366" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H366" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11371,7 +11375,7 @@
       <c r="AA366" s="24"/>
       <c r="AB366" s="24"/>
     </row>
-    <row r="367" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H367" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11397,7 +11401,7 @@
       <c r="AA367" s="24"/>
       <c r="AB367" s="24"/>
     </row>
-    <row r="368" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H368" s="18" t="str">
         <f t="shared" si="5"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11423,7 +11427,7 @@
       <c r="AA368" s="24"/>
       <c r="AB368" s="24"/>
     </row>
-    <row r="369" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H369" s="18" t="str">
         <f t="shared" ref="H369:H380" si="6">$B$1</f>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11449,7 +11453,7 @@
       <c r="AA369" s="24"/>
       <c r="AB369" s="24"/>
     </row>
-    <row r="370" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H370" s="18" t="str">
         <f t="shared" si="6"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11475,7 +11479,7 @@
       <c r="AA370" s="24"/>
       <c r="AB370" s="24"/>
     </row>
-    <row r="371" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H371" s="18" t="str">
         <f t="shared" si="6"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11501,7 +11505,7 @@
       <c r="AA371" s="24"/>
       <c r="AB371" s="24"/>
     </row>
-    <row r="372" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H372" s="18" t="str">
         <f t="shared" si="6"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11527,7 +11531,7 @@
       <c r="AA372" s="24"/>
       <c r="AB372" s="24"/>
     </row>
-    <row r="373" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H373" s="18" t="str">
         <f t="shared" si="6"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11553,7 +11557,7 @@
       <c r="AA373" s="24"/>
       <c r="AB373" s="24"/>
     </row>
-    <row r="374" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H374" s="18" t="str">
         <f t="shared" si="6"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11579,7 +11583,7 @@
       <c r="AA374" s="24"/>
       <c r="AB374" s="24"/>
     </row>
-    <row r="375" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H375" s="18" t="str">
         <f t="shared" si="6"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11605,7 +11609,7 @@
       <c r="AA375" s="24"/>
       <c r="AB375" s="24"/>
     </row>
-    <row r="376" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H376" s="18" t="str">
         <f t="shared" si="6"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11631,7 +11635,7 @@
       <c r="AA376" s="24"/>
       <c r="AB376" s="24"/>
     </row>
-    <row r="377" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H377" s="18" t="str">
         <f t="shared" si="6"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11657,7 +11661,7 @@
       <c r="AA377" s="24"/>
       <c r="AB377" s="24"/>
     </row>
-    <row r="378" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H378" s="18" t="str">
         <f t="shared" si="6"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11683,7 +11687,7 @@
       <c r="AA378" s="24"/>
       <c r="AB378" s="24"/>
     </row>
-    <row r="379" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H379" s="18" t="str">
         <f t="shared" si="6"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11709,7 +11713,7 @@
       <c r="AA379" s="24"/>
       <c r="AB379" s="24"/>
     </row>
-    <row r="380" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H380" s="18" t="str">
         <f t="shared" si="6"/>
         <v>! Doplňte siglu vlastníka !</v>
@@ -11735,169 +11739,169 @@
       <c r="AA380" s="24"/>
       <c r="AB380" s="24"/>
     </row>
-    <row r="381" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I381" s="24"/>
     </row>
-    <row r="382" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I382" s="24"/>
     </row>
-    <row r="383" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I383" s="24"/>
     </row>
-    <row r="384" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="8:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I384" s="24"/>
     </row>
-    <row r="385" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I385" s="24"/>
     </row>
-    <row r="386" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I386" s="24"/>
     </row>
-    <row r="387" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I387" s="24"/>
     </row>
-    <row r="388" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I388" s="24"/>
     </row>
-    <row r="389" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I389" s="24"/>
     </row>
-    <row r="390" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I390" s="24"/>
     </row>
-    <row r="391" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I391" s="24"/>
     </row>
-    <row r="392" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I392" s="24"/>
     </row>
-    <row r="393" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I393" s="24"/>
     </row>
-    <row r="394" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I394" s="24"/>
     </row>
-    <row r="395" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I395" s="24"/>
     </row>
-    <row r="396" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I396" s="24"/>
     </row>
-    <row r="397" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I397" s="24"/>
     </row>
-    <row r="398" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I398" s="24"/>
     </row>
-    <row r="399" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I399" s="24"/>
     </row>
-    <row r="400" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I400" s="24"/>
     </row>
-    <row r="401" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I401" s="24"/>
     </row>
-    <row r="402" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I402" s="24"/>
     </row>
-    <row r="403" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I403" s="24"/>
     </row>
-    <row r="404" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I404" s="24"/>
     </row>
-    <row r="405" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I405" s="24"/>
     </row>
-    <row r="406" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I406" s="24"/>
     </row>
-    <row r="407" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I407" s="24"/>
     </row>
-    <row r="408" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I408" s="24"/>
     </row>
-    <row r="409" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I409" s="24"/>
     </row>
-    <row r="410" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I410" s="24"/>
     </row>
-    <row r="411" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I411" s="24"/>
     </row>
-    <row r="412" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I412" s="24"/>
     </row>
-    <row r="413" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I413" s="24"/>
     </row>
-    <row r="414" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I414" s="24"/>
     </row>
-    <row r="415" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I415" s="24"/>
     </row>
-    <row r="416" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I416" s="24"/>
     </row>
-    <row r="417" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I417" s="24"/>
     </row>
-    <row r="418" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I418" s="24"/>
     </row>
-    <row r="419" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I419" s="24"/>
     </row>
-    <row r="420" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I420" s="24"/>
     </row>
-    <row r="421" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I421" s="24"/>
     </row>
-    <row r="422" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I422" s="24"/>
     </row>
-    <row r="423" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I423" s="24"/>
     </row>
-    <row r="424" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I424" s="24"/>
     </row>
-    <row r="425" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I425" s="24"/>
     </row>
-    <row r="426" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I426" s="24"/>
     </row>
-    <row r="427" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I427" s="24"/>
     </row>
-    <row r="428" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I428" s="24"/>
     </row>
-    <row r="429" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I429" s="24"/>
     </row>
-    <row r="430" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I430" s="24"/>
     </row>
-    <row r="431" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I431" s="24"/>
     </row>
-    <row r="432" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I432" s="24"/>
     </row>
-    <row r="433" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I433" s="24"/>
     </row>
-    <row r="434" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I434" s="24"/>
     </row>
-    <row r="435" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I435" s="24"/>
     </row>
   </sheetData>
@@ -11988,63 +11992,63 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6.21875" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="5.21875" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
     </row>
-    <row r="3" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="1"/>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -12066,7 +12070,7 @@
       </c>
       <c r="M10" s="31"/>
     </row>
-    <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
@@ -12085,14 +12089,14 @@
       <c r="J11" s="14">
         <v>1</v>
       </c>
-      <c r="L11" s="32">
-        <v>1</v>
-      </c>
-      <c r="M11" s="33" t="s">
+      <c r="L11" s="32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
@@ -12111,14 +12115,14 @@
       <c r="J12" s="15">
         <v>14</v>
       </c>
-      <c r="L12" s="32">
-        <v>0</v>
-      </c>
-      <c r="M12" s="33" t="s">
+      <c r="L12" s="32" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M12" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -12132,7 +12136,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -12146,7 +12150,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
@@ -12158,7 +12162,7 @@
       </c>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>49</v>
       </c>
@@ -12170,7 +12174,7 @@
       </c>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>50</v>
       </c>
@@ -12179,7 +12183,7 @@
       </c>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
@@ -12188,7 +12192,7 @@
       </c>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>52</v>
       </c>
@@ -12197,7 +12201,7 @@
       </c>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>53</v>
       </c>
@@ -12206,11 +12210,11 @@
       </c>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G21" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Gg9vaEC6BgZnHYZATROYb4wk0YMlf7lTDsRMRiyQiY/SG9yx0ztpjBKkFuToQjmbddIfE+UOVHO1LgpOdIXRkg==" saltValue="UkEzr+vKexgsey9URhYfNA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+7LfuUIP9MnuXjRKdn1/aXeB8ro7CQCI++gWita7MzsBf6xwsQU3Ha01SbdGFoj48ri/oW0+ACdh5TlFxJ2vaw==" saltValue="zgCgk9IVJgBPD/2yNzeHmw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
